--- a/Sujeto_14/Carbohidrates.xlsx
+++ b/Sujeto_14/Carbohidrates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/Estudios/Magíster/Tesis/Páncreas_artificial/BaseDatos/GitHub/Sujeto_14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4491BF-DE6E-9949-A149-C79BEC95EB02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2EF90F-9EFA-AF4D-BA7A-E34EBE69E731}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -46,9 +46,15 @@
     <t>49.1</t>
   </si>
   <si>
+    <t>1.0</t>
+  </si>
+  <si>
     <t>26.1</t>
   </si>
   <si>
+    <t>15.0</t>
+  </si>
+  <si>
     <t>27.8</t>
   </si>
   <si>
@@ -77,6 +83,9 @@
   </si>
   <si>
     <t>27.1</t>
+  </si>
+  <si>
+    <t>16.0</t>
   </si>
   <si>
     <t>6.4</t>
@@ -487,9 +496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -572,8 +579,8 @@
       <c r="A10" s="2">
         <v>44384.554093055558</v>
       </c>
-      <c r="B10">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -581,7 +588,7 @@
         <v>44384.554539699071</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -596,16 +603,16 @@
       <c r="A13" s="2">
         <v>44384.762445370368</v>
       </c>
-      <c r="B13">
-        <v>15</v>
+      <c r="B13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44385.036461226853</v>
       </c>
-      <c r="B14">
-        <v>15</v>
+      <c r="B14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -621,7 +628,7 @@
         <v>44385.541832060182</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -629,7 +636,7 @@
         <v>44385.717026388891</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -637,7 +644,7 @@
         <v>44385.717721990739</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -645,15 +652,15 @@
         <v>44385.937263310188</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>44386.016811574067</v>
       </c>
-      <c r="B20">
-        <v>15</v>
+      <c r="B20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -661,7 +668,7 @@
         <v>44386.016949074074</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -676,8 +683,8 @@
       <c r="A23" s="2">
         <v>44386.55088101852</v>
       </c>
-      <c r="B23">
-        <v>1</v>
+      <c r="B23" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -685,7 +692,7 @@
         <v>44386.551161574083</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -693,7 +700,7 @@
         <v>44386.725169907397</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -701,7 +708,7 @@
         <v>44386.919885995369</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -717,7 +724,7 @@
         <v>44387.01542152778</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -725,7 +732,7 @@
         <v>44387.646424189807</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -733,7 +740,7 @@
         <v>44387.740387268517</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -741,7 +748,7 @@
         <v>44388.013287268521</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -749,15 +756,15 @@
         <v>44388.635195486109</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>44388.639904861113</v>
       </c>
-      <c r="B33">
-        <v>16</v>
+      <c r="B33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -765,7 +772,7 @@
         <v>44388.732294560177</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -773,7 +780,7 @@
         <v>44388.732294560177</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -781,7 +788,7 @@
         <v>44389.038249999998</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
